--- a/biology/Botanique/Pommereschea/Pommereschea.xlsx
+++ b/biology/Botanique/Pommereschea/Pommereschea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pommereschea est un genre de plantes de la famille des Zingiberaceae. Il était nommé Pommereschia avant septembre 2011 par World Checklist of Selected Plant Families (WCSP)  (15 sept. 2011)[1].
-Ce genre fut décrit pour la première fois par Ludwig Wittmack en 1895 dans la publication Gartenflora, N°44, page 131, en allemand et en latin sous le titre "Pommereschea Lackneri Wittmack, n.g. et n.s. Eine neue Gattung und Art der Zingiberaceae"[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pommereschea est un genre de plantes de la famille des Zingiberaceae. Il était nommé Pommereschia avant septembre 2011 par World Checklist of Selected Plant Families (WCSP)  (15 sept. 2011).
+Ce genre fut décrit pour la première fois par Ludwig Wittmack en 1895 dans la publication Gartenflora, N°44, page 131, en allemand et en latin sous le titre "Pommereschea Lackneri Wittmack, n.g. et n.s. Eine neue Gattung und Art der Zingiberaceae".
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (19 sept 2011)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (19 sept 2011) :
 Pommereschea lackneri Witte (1895)
 Pommereschea spectabilis (King &amp; Prain) K.Schum. (1904)
-Selon NCBI  (19 sept 2011)[4] :
+Selon NCBI  (19 sept 2011) :
 Pommereschea lackneri</t>
         </is>
       </c>
